--- a/results/mobile_from_zero/classification_report.xlsx
+++ b/results/mobile_from_zero/classification_report.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2644628099173554</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2133333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21875</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="7">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
